--- a/Group Assignments/All Teams.xlsx
+++ b/Group Assignments/All Teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 390\STOR390_WEBSITE\Group Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 538\STOR538_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414E1945-A2E7-42D2-A56A-6EAFB132F26F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31911DE5-95EC-4C39-9918-3FEC7BD7182B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
+    <workbookView xWindow="7470" yWindow="1720" windowWidth="15040" windowHeight="10340" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,137 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Adams,Hannah Grace</t>
-  </si>
-  <si>
-    <t>Baker,Richard Link</t>
-  </si>
-  <si>
-    <t>Barlow,Daniel</t>
-  </si>
-  <si>
-    <t>Beja-Glasser,Alexandra Lynn</t>
-  </si>
-  <si>
-    <t>Bloch,Mitch Ray</t>
-  </si>
-  <si>
-    <t>Bono,Michael</t>
-  </si>
-  <si>
-    <t>Braxton,Lindsey Nicole</t>
-  </si>
-  <si>
-    <t>Buisson,Will Holbrook</t>
-  </si>
-  <si>
-    <t>Bury III,James Edward</t>
-  </si>
-  <si>
-    <t>Cameron,Bryanna Margaret</t>
-  </si>
-  <si>
-    <t>Carson,Sam Vincent</t>
-  </si>
-  <si>
-    <t>Edmonds,Daniel Burke</t>
-  </si>
-  <si>
-    <t>Fang,Minerva</t>
-  </si>
-  <si>
-    <t>Ferraro,Samantha Jo</t>
-  </si>
-  <si>
-    <t>Festa,Hanna Marie</t>
-  </si>
-  <si>
-    <t>Finger,Hunter Hutcheson</t>
-  </si>
-  <si>
-    <t>Freeman,Kirsten Olivia</t>
-  </si>
-  <si>
-    <t>Henson,Ted Carlton</t>
-  </si>
-  <si>
-    <t>Huml,Jon Raymond</t>
-  </si>
-  <si>
-    <t>Hyler,Kevin Reese</t>
-  </si>
-  <si>
-    <t>Johnson,Matt Christopher</t>
-  </si>
-  <si>
-    <t>Leary,Jack</t>
-  </si>
-  <si>
-    <t>Liao,Jonathan</t>
-  </si>
-  <si>
-    <t>Mann Jr,Conner Conner</t>
-  </si>
-  <si>
-    <t>Matthew,Alex Charles</t>
-  </si>
-  <si>
-    <t>Mccluskey,Jack R</t>
-  </si>
-  <si>
-    <t>Monroe,Olivia Morgan Charis</t>
-  </si>
-  <si>
-    <t>Muhsen II,Abed Iyad</t>
-  </si>
-  <si>
-    <t>Nadler,Dean</t>
-  </si>
-  <si>
-    <t>Nelson Sr,Lindsey Olive</t>
-  </si>
-  <si>
-    <t>O'Connor,Allison Delane</t>
-  </si>
-  <si>
-    <t>Pierce,Drew Gregory</t>
-  </si>
-  <si>
-    <t>Pierce,Victoria Ruth</t>
-  </si>
-  <si>
-    <t>Ram,Pranav</t>
-  </si>
-  <si>
-    <t>Rodgers,Ethan</t>
-  </si>
-  <si>
-    <t>Shanklin,Brett Soule</t>
-  </si>
-  <si>
-    <t>Shrestha,Joshua Prayash</t>
-  </si>
-  <si>
-    <t>Stephens,Shane</t>
-  </si>
-  <si>
-    <t>Stocker,Gabe Joseph</t>
-  </si>
-  <si>
-    <t>Talton,Haley Ashworth</t>
-  </si>
-  <si>
-    <t>Wasserman,Diana Faith</t>
-  </si>
-  <si>
-    <t>Williams,Abby</t>
-  </si>
-  <si>
     <t>Championship</t>
   </si>
   <si>
@@ -177,12 +51,6 @@
     <t>Gameday Speech 2</t>
   </si>
   <si>
-    <t>Kang,Sarah SoYoung</t>
-  </si>
-  <si>
-    <t>Marra,Gianluca</t>
-  </si>
-  <si>
     <t>Gameday Speech 3</t>
   </si>
   <si>
@@ -190,6 +58,216 @@
   </si>
   <si>
     <t>Gameday Speech 5</t>
+  </si>
+  <si>
+    <t>Bledsoe, Thomas</t>
+  </si>
+  <si>
+    <t>Patel, Shivam</t>
+  </si>
+  <si>
+    <t>Neza, Terry</t>
+  </si>
+  <si>
+    <t>Loekman, Patrick</t>
+  </si>
+  <si>
+    <t>Willett, Jason</t>
+  </si>
+  <si>
+    <t>Walicki, Taylor</t>
+  </si>
+  <si>
+    <t>Jahnke, Deven</t>
+  </si>
+  <si>
+    <t>Robinson, Drew</t>
+  </si>
+  <si>
+    <t>Harvey, Michael</t>
+  </si>
+  <si>
+    <t>Ruehle, Gabby</t>
+  </si>
+  <si>
+    <t>Ramireddy, Keshav</t>
+  </si>
+  <si>
+    <t>James, Michael</t>
+  </si>
+  <si>
+    <t>Kottakkudy, Sneha</t>
+  </si>
+  <si>
+    <t>Wright, Alec</t>
+  </si>
+  <si>
+    <t>Sutaria, Nirbhay</t>
+  </si>
+  <si>
+    <t>Lee, Michael</t>
+  </si>
+  <si>
+    <t>Gillenwater, Peyton</t>
+  </si>
+  <si>
+    <t>Pigg, Branson</t>
+  </si>
+  <si>
+    <t>Phadnis, Ishaan</t>
+  </si>
+  <si>
+    <t>Barrett, Baxter</t>
+  </si>
+  <si>
+    <t>Vogel, Ryan</t>
+  </si>
+  <si>
+    <t>Cheek, Gorrell</t>
+  </si>
+  <si>
+    <t>Liu, Brian</t>
+  </si>
+  <si>
+    <t>Casmus, Will</t>
+  </si>
+  <si>
+    <t>Qin, William</t>
+  </si>
+  <si>
+    <t>Menon, Chucky</t>
+  </si>
+  <si>
+    <t>Wilmot, Timmy</t>
+  </si>
+  <si>
+    <t>Schuhler, Sarah</t>
+  </si>
+  <si>
+    <t>Depani, Aman</t>
+  </si>
+  <si>
+    <t>Heyn, Conner</t>
+  </si>
+  <si>
+    <t>Hawkins, Liam</t>
+  </si>
+  <si>
+    <t>Armah, Michael</t>
+  </si>
+  <si>
+    <t>Patel, Kush</t>
+  </si>
+  <si>
+    <t>Bi, Nicole</t>
+  </si>
+  <si>
+    <t>Miller, Aidan</t>
+  </si>
+  <si>
+    <t>Tandon, Mehr</t>
+  </si>
+  <si>
+    <t>Lynch, Tim</t>
+  </si>
+  <si>
+    <t>Guillou, Emilie</t>
+  </si>
+  <si>
+    <t>Shimshock, Hannah</t>
+  </si>
+  <si>
+    <t>Kotha, Prabhath</t>
+  </si>
+  <si>
+    <t>Dewey, Hayden</t>
+  </si>
+  <si>
+    <t>Wingo, Abby</t>
+  </si>
+  <si>
+    <t>Ashman, Amber</t>
+  </si>
+  <si>
+    <t>Vlacancich, Jeremy</t>
+  </si>
+  <si>
+    <t>Johnson, Aj</t>
+  </si>
+  <si>
+    <t>Schmitt, Justin</t>
+  </si>
+  <si>
+    <t>Mcgrew, Grant</t>
+  </si>
+  <si>
+    <t>Wu, William</t>
+  </si>
+  <si>
+    <t>Taffe, Michael</t>
+  </si>
+  <si>
+    <t>Birla, Revant</t>
+  </si>
+  <si>
+    <t>Shahzad, Zain</t>
+  </si>
+  <si>
+    <t>Lindner, Edward</t>
+  </si>
+  <si>
+    <t>Dellamaestra, Ethan</t>
+  </si>
+  <si>
+    <t>Dally, Khala</t>
+  </si>
+  <si>
+    <t>Rutter, Jake</t>
+  </si>
+  <si>
+    <t>Oringel, Jake</t>
+  </si>
+  <si>
+    <t>Despard, Mack</t>
+  </si>
+  <si>
+    <t>Karamitros, Vivian</t>
+  </si>
+  <si>
+    <t>Pinder, Alexander</t>
+  </si>
+  <si>
+    <t>Youngberg, Tyler</t>
+  </si>
+  <si>
+    <t>Chen, Abby</t>
+  </si>
+  <si>
+    <t>Mcclain, Jalen</t>
+  </si>
+  <si>
+    <t>Fitzhugh, Ellis</t>
+  </si>
+  <si>
+    <t>Gupta, Shambhavi</t>
+  </si>
+  <si>
+    <t>Chow, Samuel</t>
+  </si>
+  <si>
+    <t>Stephens, Trevor</t>
+  </si>
+  <si>
+    <t>Magnuson, Michael</t>
+  </si>
+  <si>
+    <t>Leeson, Connor</t>
+  </si>
+  <si>
+    <t>O'connell, Cade</t>
+  </si>
+  <si>
+    <t>Fernald, Trevor</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F93BAB1-DB6F-4342-9A4B-754573C9E9A0}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H2" sqref="H2:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1115,315 +1193,315 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2">
         <v>4</v>
       </c>
       <c r="H4" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H8" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2">
         <v>3</v>
@@ -1431,376 +1509,376 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B12" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F13" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I14" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F16" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2">
         <v>6</v>
       </c>
       <c r="F17" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" s="4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19" s="4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F20" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
         <v>3</v>
       </c>
       <c r="G21" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H21" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F22" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I22" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I23" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
       </c>
       <c r="E24" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F24" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H24" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2">
         <v>5</v>
@@ -1808,263 +1886,263 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G25" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D26" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I27" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2">
         <v>7</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E28" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F28" s="4">
         <v>7</v>
       </c>
       <c r="G28" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F29" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H30" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G31" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I31" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D32" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F33" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G33" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H33" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I33" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -2072,112 +2150,112 @@
         <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D34" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F34" s="4">
         <v>5</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H34" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I34" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2">
         <v>6</v>
       </c>
       <c r="F35" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G35" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H35" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D36" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F36" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H36" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I36" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B37" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F37" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H37" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I37" s="2">
         <v>9</v>
@@ -2185,144 +2263,144 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B38" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E38" s="2">
         <v>8</v>
       </c>
       <c r="F38" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H38" s="3">
         <v>5</v>
       </c>
       <c r="I38" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D39" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F39" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H39" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I39" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E40" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F40" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H40" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I40" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B41" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D41" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E41" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F41" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H41" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I41" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B42" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D42" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E42" s="2">
         <v>3</v>
       </c>
       <c r="F42" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H42" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I42" s="2">
         <v>2</v>
@@ -2330,89 +2408,843 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B43" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C43" s="2">
         <v>8</v>
       </c>
       <c r="D43" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F43" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B44" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G44" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H44" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I44" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3">
         <v>7</v>
       </c>
       <c r="C45" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D45" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E45" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F45" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G45" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H45" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I45" s="2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="3">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2">
+        <v>12</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="3">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>13</v>
+      </c>
+      <c r="H48" s="3">
+        <v>8</v>
+      </c>
+      <c r="I48" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="3">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2</v>
+      </c>
+      <c r="H49" s="3">
+        <v>7</v>
+      </c>
+      <c r="I49" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>6</v>
+      </c>
+      <c r="D50" s="3">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2">
+        <v>14</v>
+      </c>
+      <c r="F50" s="3">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3">
+        <v>12</v>
+      </c>
+      <c r="I50" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>14</v>
+      </c>
+      <c r="F51" s="3">
+        <v>14</v>
+      </c>
+      <c r="G51" s="2">
+        <v>6</v>
+      </c>
+      <c r="H51" s="3">
+        <v>11</v>
+      </c>
+      <c r="I51" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>12</v>
+      </c>
+      <c r="G52" s="2">
+        <v>9</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2">
+        <v>4</v>
+      </c>
+      <c r="F53" s="3">
+        <v>12</v>
+      </c>
+      <c r="G53" s="2">
+        <v>7</v>
+      </c>
+      <c r="H53" s="3">
+        <v>3</v>
+      </c>
+      <c r="I53" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="3">
+        <v>11</v>
+      </c>
+      <c r="C54" s="2">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2">
+        <v>6</v>
+      </c>
+      <c r="H54" s="3">
+        <v>6</v>
+      </c>
+      <c r="I54" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="F55" s="3">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2">
+        <v>13</v>
+      </c>
+      <c r="H55" s="3">
+        <v>10</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="3">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2">
+        <v>14</v>
+      </c>
+      <c r="F56" s="3">
+        <v>13</v>
+      </c>
+      <c r="G56" s="2">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3">
+        <v>13</v>
+      </c>
+      <c r="I56" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="3">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3">
+        <v>13</v>
+      </c>
+      <c r="E57" s="2">
+        <v>6</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3">
+        <v>12</v>
+      </c>
+      <c r="I57" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="3">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>11</v>
+      </c>
+      <c r="G58" s="2">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="3">
+        <v>14</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2</v>
+      </c>
+      <c r="H59" s="3">
+        <v>7</v>
+      </c>
+      <c r="I59" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>10</v>
+      </c>
+      <c r="D60" s="3">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9</v>
+      </c>
+      <c r="G60" s="2">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3">
+        <v>9</v>
+      </c>
+      <c r="I60" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="3">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2">
+        <v>8</v>
+      </c>
+      <c r="F61" s="3">
+        <v>5</v>
+      </c>
+      <c r="G61" s="2">
+        <v>8</v>
+      </c>
+      <c r="H61" s="3">
+        <v>3</v>
+      </c>
+      <c r="I61" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="3">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3">
+        <v>12</v>
+      </c>
+      <c r="E62" s="2">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3">
+        <v>12</v>
+      </c>
+      <c r="G62" s="2">
+        <v>12</v>
+      </c>
+      <c r="H62" s="3">
+        <v>8</v>
+      </c>
+      <c r="I62" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="3">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2">
+        <v>12</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>4</v>
+      </c>
+      <c r="H63" s="3">
+        <v>10</v>
+      </c>
+      <c r="I63" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
+        <v>10</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3</v>
+      </c>
+      <c r="F64" s="3">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2">
+        <v>9</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>12</v>
+      </c>
+      <c r="D65" s="3">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2">
+        <v>12</v>
+      </c>
+      <c r="F65" s="3">
+        <v>14</v>
+      </c>
+      <c r="G65" s="2">
+        <v>12</v>
+      </c>
+      <c r="H65" s="3">
+        <v>8</v>
+      </c>
+      <c r="I65" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>9</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3">
+        <v>13</v>
+      </c>
+      <c r="G66" s="2">
+        <v>14</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="3">
+        <v>6</v>
+      </c>
+      <c r="C67" s="2">
+        <v>11</v>
+      </c>
+      <c r="D67" s="3">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>4</v>
+      </c>
+      <c r="G67" s="2">
+        <v>10</v>
+      </c>
+      <c r="H67" s="3">
+        <v>13</v>
+      </c>
+      <c r="I67" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="3">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2">
+        <v>9</v>
+      </c>
+      <c r="F68" s="3">
+        <v>13</v>
+      </c>
+      <c r="G68" s="2">
+        <v>10</v>
+      </c>
+      <c r="H68" s="3">
+        <v>10</v>
+      </c>
+      <c r="I68" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2">
+        <v>6</v>
+      </c>
+      <c r="D69" s="3">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2">
+        <v>7</v>
+      </c>
+      <c r="F69" s="3">
+        <v>5</v>
+      </c>
+      <c r="G69" s="2">
+        <v>14</v>
+      </c>
+      <c r="H69" s="3">
+        <v>2</v>
+      </c>
+      <c r="I69" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="3">
+        <v>10</v>
+      </c>
+      <c r="C70" s="2">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>6</v>
+      </c>
+      <c r="I70" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="3">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2">
+        <v>7</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
+        <v>13</v>
+      </c>
+      <c r="F71" s="3">
+        <v>11</v>
+      </c>
+      <c r="G71" s="2">
+        <v>14</v>
+      </c>
+      <c r="H71" s="3">
+        <v>6</v>
+      </c>
+      <c r="I71" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Group Assignments/All Teams.xlsx
+++ b/Group Assignments/All Teams.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 538\STOR538_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31911DE5-95EC-4C39-9918-3FEC7BD7182B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F46085F-85B0-4D92-AE42-E2E56378C154}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="1720" windowWidth="15040" windowHeight="10340" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$I</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -60,221 +63,263 @@
     <t>Gameday Speech 5</t>
   </si>
   <si>
-    <t>Bledsoe, Thomas</t>
-  </si>
-  <si>
-    <t>Patel, Shivam</t>
-  </si>
-  <si>
-    <t>Neza, Terry</t>
-  </si>
-  <si>
-    <t>Loekman, Patrick</t>
-  </si>
-  <si>
-    <t>Willett, Jason</t>
-  </si>
-  <si>
-    <t>Walicki, Taylor</t>
-  </si>
-  <si>
-    <t>Jahnke, Deven</t>
-  </si>
-  <si>
-    <t>Robinson, Drew</t>
-  </si>
-  <si>
-    <t>Harvey, Michael</t>
-  </si>
-  <si>
-    <t>Ruehle, Gabby</t>
-  </si>
-  <si>
-    <t>Ramireddy, Keshav</t>
-  </si>
-  <si>
-    <t>James, Michael</t>
-  </si>
-  <si>
-    <t>Kottakkudy, Sneha</t>
-  </si>
-  <si>
-    <t>Wright, Alec</t>
-  </si>
-  <si>
-    <t>Sutaria, Nirbhay</t>
-  </si>
-  <si>
-    <t>Lee, Michael</t>
-  </si>
-  <si>
-    <t>Gillenwater, Peyton</t>
-  </si>
-  <si>
-    <t>Pigg, Branson</t>
-  </si>
-  <si>
-    <t>Phadnis, Ishaan</t>
-  </si>
-  <si>
-    <t>Barrett, Baxter</t>
-  </si>
-  <si>
-    <t>Vogel, Ryan</t>
-  </si>
-  <si>
-    <t>Cheek, Gorrell</t>
-  </si>
-  <si>
-    <t>Liu, Brian</t>
-  </si>
-  <si>
-    <t>Casmus, Will</t>
-  </si>
-  <si>
-    <t>Qin, William</t>
-  </si>
-  <si>
-    <t>Menon, Chucky</t>
-  </si>
-  <si>
-    <t>Wilmot, Timmy</t>
-  </si>
-  <si>
-    <t>Schuhler, Sarah</t>
-  </si>
-  <si>
-    <t>Depani, Aman</t>
-  </si>
-  <si>
-    <t>Heyn, Conner</t>
-  </si>
-  <si>
-    <t>Hawkins, Liam</t>
-  </si>
-  <si>
-    <t>Armah, Michael</t>
-  </si>
-  <si>
-    <t>Patel, Kush</t>
-  </si>
-  <si>
-    <t>Bi, Nicole</t>
-  </si>
-  <si>
-    <t>Miller, Aidan</t>
-  </si>
-  <si>
-    <t>Tandon, Mehr</t>
-  </si>
-  <si>
-    <t>Lynch, Tim</t>
-  </si>
-  <si>
-    <t>Guillou, Emilie</t>
-  </si>
-  <si>
-    <t>Shimshock, Hannah</t>
-  </si>
-  <si>
-    <t>Kotha, Prabhath</t>
-  </si>
-  <si>
-    <t>Dewey, Hayden</t>
-  </si>
-  <si>
-    <t>Wingo, Abby</t>
-  </si>
-  <si>
-    <t>Ashman, Amber</t>
-  </si>
-  <si>
-    <t>Vlacancich, Jeremy</t>
-  </si>
-  <si>
-    <t>Johnson, Aj</t>
-  </si>
-  <si>
-    <t>Schmitt, Justin</t>
-  </si>
-  <si>
-    <t>Mcgrew, Grant</t>
-  </si>
-  <si>
-    <t>Wu, William</t>
-  </si>
-  <si>
-    <t>Taffe, Michael</t>
-  </si>
-  <si>
-    <t>Birla, Revant</t>
-  </si>
-  <si>
-    <t>Shahzad, Zain</t>
-  </si>
-  <si>
-    <t>Lindner, Edward</t>
-  </si>
-  <si>
-    <t>Dellamaestra, Ethan</t>
-  </si>
-  <si>
-    <t>Dally, Khala</t>
-  </si>
-  <si>
-    <t>Rutter, Jake</t>
-  </si>
-  <si>
-    <t>Oringel, Jake</t>
-  </si>
-  <si>
-    <t>Despard, Mack</t>
-  </si>
-  <si>
-    <t>Karamitros, Vivian</t>
-  </si>
-  <si>
-    <t>Pinder, Alexander</t>
-  </si>
-  <si>
-    <t>Youngberg, Tyler</t>
-  </si>
-  <si>
-    <t>Chen, Abby</t>
-  </si>
-  <si>
-    <t>Mcclain, Jalen</t>
-  </si>
-  <si>
-    <t>Fitzhugh, Ellis</t>
-  </si>
-  <si>
-    <t>Gupta, Shambhavi</t>
-  </si>
-  <si>
-    <t>Chow, Samuel</t>
-  </si>
-  <si>
-    <t>Stephens, Trevor</t>
-  </si>
-  <si>
-    <t>Magnuson, Michael</t>
-  </si>
-  <si>
-    <t>Leeson, Connor</t>
-  </si>
-  <si>
-    <t>O'connell, Cade</t>
-  </si>
-  <si>
-    <t>Fernald, Trevor</t>
+    <t>Argueta,Fernando Santiago</t>
+  </si>
+  <si>
+    <t>Baker,Crystal Reshea</t>
+  </si>
+  <si>
+    <t>Basu,Sayak</t>
+  </si>
+  <si>
+    <t>Bharadwaj,Akshatha</t>
+  </si>
+  <si>
+    <t>Binsulaiman,Abdullah Mohammed A</t>
+  </si>
+  <si>
+    <t>Bordonaro,Brooke O</t>
+  </si>
+  <si>
+    <t>Bridges,Polly Thí Thuy</t>
+  </si>
+  <si>
+    <t>Burchell Jr,Clay Clay</t>
+  </si>
+  <si>
+    <t>Burhans,Tucker Field</t>
+  </si>
+  <si>
+    <t>Chadwick,Alexandria Leigh</t>
+  </si>
+  <si>
+    <t>Chen,Elise</t>
+  </si>
+  <si>
+    <t>Chen,Jessica</t>
+  </si>
+  <si>
+    <t>Childs,Grace Katelyn</t>
+  </si>
+  <si>
+    <t>Cooper,Harrison Bigelow</t>
+  </si>
+  <si>
+    <t>Cozart,Lee Armstrong</t>
+  </si>
+  <si>
+    <t>Cui,Connie Palmer</t>
+  </si>
+  <si>
+    <t>Cybrynski,Julianna Jeanne</t>
+  </si>
+  <si>
+    <t>Datta,Anisha</t>
+  </si>
+  <si>
+    <t>Deo,Advaith</t>
+  </si>
+  <si>
+    <t>Desham,Sahith Reddy</t>
+  </si>
+  <si>
+    <t>Deshmukh,Ekta Vilas</t>
+  </si>
+  <si>
+    <t>Deverteuil,Liam Simon</t>
+  </si>
+  <si>
+    <t>Edwards,Alexa Marie</t>
+  </si>
+  <si>
+    <t>Evora,Daniel Mantei</t>
+  </si>
+  <si>
+    <t>Fan,Dora</t>
+  </si>
+  <si>
+    <t>Gandecha,Raj Dilip</t>
+  </si>
+  <si>
+    <t>Ganesan,Rajee</t>
+  </si>
+  <si>
+    <t>Geng,Xuyang</t>
+  </si>
+  <si>
+    <t>Gopalswamy,Shruti</t>
+  </si>
+  <si>
+    <t>Gray,Lucy Elisabeth</t>
+  </si>
+  <si>
+    <t>Gupta,Vasu</t>
+  </si>
+  <si>
+    <t>Hamilton,Laura Clare</t>
+  </si>
+  <si>
+    <t>Hastings,Isabella Josephine</t>
+  </si>
+  <si>
+    <t>Jakkinpali,Neha Laxmi</t>
+  </si>
+  <si>
+    <t>Johnson,Kelsey Marie</t>
+  </si>
+  <si>
+    <t>Jones,Ashley Renee</t>
+  </si>
+  <si>
+    <t>Joseph,Fab</t>
+  </si>
+  <si>
+    <t>Kadlec,Abby Carolan</t>
+  </si>
+  <si>
+    <t>Kajiwara,Aoi</t>
+  </si>
+  <si>
+    <t>Kim,Janice Jiwon</t>
+  </si>
+  <si>
+    <t>Kirkman,Nicholas John</t>
+  </si>
+  <si>
+    <t>Klein,Eric Robert</t>
+  </si>
+  <si>
+    <t>Kothapalli,Rachana</t>
+  </si>
+  <si>
+    <t>Lee,Ethan S</t>
+  </si>
+  <si>
+    <t>Li,Rui</t>
+  </si>
+  <si>
+    <t>Li,Vivian</t>
+  </si>
+  <si>
+    <t>Lickteig,John Henry</t>
+  </si>
+  <si>
+    <t>Liu,Tianen</t>
+  </si>
+  <si>
+    <t>Lo,Ashlee Mylea</t>
+  </si>
+  <si>
+    <t>Mahadeshwar,Dimple Jagannath</t>
+  </si>
+  <si>
+    <t>Mauzy,Justin Scott</t>
+  </si>
+  <si>
+    <t>Miller,Eric Marshall</t>
+  </si>
+  <si>
+    <t>Millican,Reagan Mccreary</t>
+  </si>
+  <si>
+    <t>Morris,Adelynn</t>
+  </si>
+  <si>
+    <t>Moton,Ryan</t>
+  </si>
+  <si>
+    <t>Oh,Sooyeon</t>
+  </si>
+  <si>
+    <t>Pano Flores,Antonio</t>
+  </si>
+  <si>
+    <t>Patnaik,Shreya</t>
+  </si>
+  <si>
+    <t>Penwell,Alexa Marie</t>
+  </si>
+  <si>
+    <t>Poole,Meredith</t>
+  </si>
+  <si>
+    <t>Rai,Swadha</t>
+  </si>
+  <si>
+    <t>Rajeshwer,Maanasa</t>
+  </si>
+  <si>
+    <t>Rende,Jerrett David</t>
+  </si>
+  <si>
+    <t>Reuland,Oliver Charles</t>
+  </si>
+  <si>
+    <t>Shaban,Omar Hilal</t>
+  </si>
+  <si>
+    <t>Shock,Ryan Michael</t>
+  </si>
+  <si>
+    <t>Sinclair,Julianne Elizabeth</t>
+  </si>
+  <si>
+    <t>Sivaraman,Maitreyi Saradha</t>
+  </si>
+  <si>
+    <t>Sriperumbudur,Amruth Swamy</t>
+  </si>
+  <si>
+    <t>Suo,Feiya</t>
+  </si>
+  <si>
+    <t>Szarka,Sylvia Tande</t>
+  </si>
+  <si>
+    <t>Tedford,Alison Hope</t>
+  </si>
+  <si>
+    <t>Terry-Edmunds,Sam Kweta</t>
+  </si>
+  <si>
+    <t>Thuman,Sydney Olga</t>
+  </si>
+  <si>
+    <t>Tiano,Drew Joseph</t>
+  </si>
+  <si>
+    <t>Tompkins,Brent Nichols</t>
+  </si>
+  <si>
+    <t>Varani,Lex</t>
+  </si>
+  <si>
+    <t>Vytla,Nikhil</t>
+  </si>
+  <si>
+    <t>Wasyluk,Matt Michael</t>
+  </si>
+  <si>
+    <t>Weisenhorn,Simon Philip</t>
+  </si>
+  <si>
+    <t>Willingham,Charlie Hardwicke</t>
+  </si>
+  <si>
+    <t>Youngstrom,Diane Erin</t>
+  </si>
+  <si>
+    <t>Zengince,Fehmi</t>
+  </si>
+  <si>
+    <t>Ziade,Mia Carole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,14 +449,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -812,7 +849,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1170,21 +1207,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F93BAB1-DB6F-4342-9A4B-754573C9E9A0}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H71"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="11" style="6" customWidth="1"/>
+    <col min="1" max="1" width="33.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="6"/>
     <col min="5" max="6" width="11" style="6" customWidth="1"/>
     <col min="7" max="7" width="9.08984375" style="6" customWidth="1"/>
     <col min="8" max="8" width="11" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" style="6" customWidth="1"/>
     <col min="10" max="10" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1219,7 +1257,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>7</v>
@@ -1234,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2">
         <v>13</v>
@@ -1248,7 +1286,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>9</v>
@@ -1260,10 +1298,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2">
         <v>12</v>
@@ -1277,22 +1315,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2">
         <v>4</v>
@@ -1306,25 +1344,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3">
         <v>11</v>
       </c>
       <c r="E5" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3">
         <v>9</v>
@@ -1335,25 +1373,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
         <v>9</v>
       </c>
       <c r="E6" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3">
         <v>13</v>
@@ -1364,25 +1402,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3">
         <v>4</v>
@@ -1393,231 +1431,231 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3">
         <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
       <c r="F12" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I14" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G15" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2">
         <v>13</v>
@@ -1625,564 +1663,564 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F16" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H16" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H17" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G18" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H18" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F19" s="4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G19" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H19" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3">
         <v>14</v>
       </c>
       <c r="E20" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F20" s="4">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G20" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I20" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3">
         <v>13</v>
       </c>
       <c r="C21" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F21" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G21" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I21" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I22" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F23" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E24" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F24" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F25" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H25" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I25" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I26" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
         <v>14</v>
       </c>
       <c r="D27" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F27" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I27" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
         <v>7</v>
       </c>
       <c r="D28" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I28" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2">
         <v>12</v>
       </c>
       <c r="F29" s="4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I29" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
         <v>12</v>
       </c>
       <c r="D30" s="3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H30" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F31" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G31" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H31" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I31" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D32" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F32" s="4">
         <v>12</v>
       </c>
       <c r="G32" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H32" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I32" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F33" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H33" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I33" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H34" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
@@ -2191,413 +2229,413 @@
         <v>6</v>
       </c>
       <c r="F35" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G35" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H35" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I35" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E36" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I36" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D37" s="3">
         <v>6</v>
       </c>
       <c r="E37" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F37" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G37" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H37" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F38" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G38" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I38" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C39" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D39" s="3">
         <v>7</v>
       </c>
       <c r="E39" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H39" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I39" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D40" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I40" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D41" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2">
         <v>13</v>
       </c>
       <c r="F41" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G41" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H41" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
         <v>5</v>
       </c>
       <c r="E42" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F42" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G42" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H42" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I42" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C43" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F43" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H43" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I43" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F44" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H44" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C45" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E45" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F45" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G45" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H45" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B46" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F46" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G46" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H46" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I46" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B47" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D47" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E47" s="2">
         <v>8</v>
       </c>
       <c r="F47" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G47" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H47" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I47" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B48" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G48" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H48" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I48" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B49" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D49" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F49" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G49" s="2">
         <v>2</v>
@@ -2606,120 +2644,120 @@
         <v>7</v>
       </c>
       <c r="I49" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B50" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C50" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F50" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G50" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H50" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I50" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B51" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D51" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E51" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G51" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H51" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I51" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B52" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C52" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D52" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E52" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F52" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G52" s="2">
         <v>9</v>
       </c>
       <c r="H52" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I52" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G53" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H53" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I53" s="2">
         <v>6</v>
@@ -2727,86 +2765,86 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C54" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D54" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E54" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F54" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G54" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H54" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I54" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B55" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D55" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E55" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G55" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H55" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I55" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B56" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D56" s="3">
         <v>8</v>
       </c>
       <c r="E56" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F56" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G56" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H56" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I56" s="2">
         <v>11</v>
@@ -2814,260 +2852,260 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B57" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C57" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D57" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E57" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F57" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G57" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H57" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I57" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B58" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D58" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F58" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G58" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H58" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I58" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B59" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D59" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E59" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F59" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G59" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H59" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I59" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B60" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D60" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E60" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F60" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G60" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H60" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I60" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B61" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D61" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H61" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I61" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="3">
-        <v>8</v>
-      </c>
-      <c r="C62" s="2">
-        <v>4</v>
-      </c>
-      <c r="D62" s="3">
-        <v>12</v>
-      </c>
-      <c r="E62" s="2">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3">
-        <v>12</v>
-      </c>
-      <c r="G62" s="2">
-        <v>12</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8</v>
-      </c>
-      <c r="I62" s="2">
-        <v>7</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B63" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C63" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F63" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G63" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H63" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I63" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B64" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C64" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D64" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E64" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F64" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G64" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H64" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I64" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B65" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C65" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D65" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E65" s="2">
         <v>12</v>
       </c>
       <c r="F65" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G65" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H65" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I65" s="2">
         <v>7</v>
@@ -3075,176 +3113,611 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B66" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C66" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E66" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F66" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G66" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H66" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I66" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B67" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C67" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D67" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H67" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I67" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B68" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C68" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D68" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E68" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F68" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G68" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H68" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I68" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B69" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E69" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F69" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G69" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H69" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I69" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B70" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C70" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D70" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2">
         <v>10</v>
       </c>
       <c r="F70" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G70" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H70" s="3">
         <v>6</v>
       </c>
       <c r="I70" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B71" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D71" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F71" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H71" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I71" s="2">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="3">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2">
+        <v>15</v>
+      </c>
+      <c r="F72" s="3">
+        <v>14</v>
+      </c>
+      <c r="G72" s="2">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
+        <v>15</v>
+      </c>
+      <c r="I72" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="3">
+        <v>9</v>
+      </c>
+      <c r="C73" s="2">
+        <v>14</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>9</v>
+      </c>
+      <c r="G73" s="2">
+        <v>6</v>
+      </c>
+      <c r="H73" s="3">
+        <v>12</v>
+      </c>
+      <c r="I73" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="3">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2">
+        <v>9</v>
+      </c>
+      <c r="F74" s="3">
+        <v>13</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3">
+        <v>6</v>
+      </c>
+      <c r="I74" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="3">
+        <v>15</v>
+      </c>
+      <c r="C75" s="2">
+        <v>10</v>
+      </c>
+      <c r="D75" s="3">
+        <v>6</v>
+      </c>
+      <c r="E75" s="2">
+        <v>10</v>
+      </c>
+      <c r="F75" s="3">
+        <v>11</v>
+      </c>
+      <c r="G75" s="2">
+        <v>13</v>
+      </c>
+      <c r="H75" s="3">
+        <v>14</v>
+      </c>
+      <c r="I75" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="3">
+        <v>13</v>
+      </c>
+      <c r="C76" s="2">
+        <v>16</v>
+      </c>
+      <c r="D76" s="3">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>17</v>
+      </c>
+      <c r="G76" s="2">
+        <v>13</v>
+      </c>
+      <c r="H76" s="3">
+        <v>6</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="3">
+        <v>3</v>
+      </c>
+      <c r="C77" s="2">
+        <v>7</v>
+      </c>
+      <c r="D77" s="3">
+        <v>10</v>
+      </c>
+      <c r="E77" s="2">
+        <v>4</v>
+      </c>
+      <c r="F77" s="3">
+        <v>6</v>
+      </c>
+      <c r="G77" s="2">
+        <v>14</v>
+      </c>
+      <c r="H77" s="3">
+        <v>14</v>
+      </c>
+      <c r="I77" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="3">
+        <v>10</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2</v>
+      </c>
+      <c r="D78" s="3">
+        <v>11</v>
+      </c>
+      <c r="E78" s="2">
+        <v>8</v>
+      </c>
+      <c r="F78" s="3">
+        <v>4</v>
+      </c>
+      <c r="G78" s="2">
+        <v>2</v>
+      </c>
+      <c r="H78" s="3">
+        <v>15</v>
+      </c>
+      <c r="I78" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="3">
+        <v>8</v>
+      </c>
+      <c r="C79" s="2">
+        <v>11</v>
+      </c>
+      <c r="D79" s="3">
+        <v>14</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2">
+        <v>5</v>
+      </c>
+      <c r="H79" s="3">
+        <v>13</v>
+      </c>
+      <c r="I79" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="3">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2">
+        <v>8</v>
+      </c>
+      <c r="D80" s="3">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2">
+        <v>17</v>
+      </c>
+      <c r="F80" s="3">
+        <v>5</v>
+      </c>
+      <c r="G80" s="2">
+        <v>8</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5</v>
+      </c>
+      <c r="C81" s="2">
+        <v>9</v>
+      </c>
+      <c r="D81" s="3">
+        <v>15</v>
+      </c>
+      <c r="E81" s="2">
+        <v>11</v>
+      </c>
+      <c r="F81" s="3">
+        <v>12</v>
+      </c>
+      <c r="G81" s="2">
+        <v>14</v>
+      </c>
+      <c r="H81" s="3">
+        <v>8</v>
+      </c>
+      <c r="I81" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="3">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2">
+        <v>15</v>
+      </c>
+      <c r="D82" s="3">
+        <v>14</v>
+      </c>
+      <c r="E82" s="2">
+        <v>9</v>
+      </c>
+      <c r="F82" s="3">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2">
+        <v>17</v>
+      </c>
+      <c r="H82" s="3">
+        <v>2</v>
+      </c>
+      <c r="I82" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="3">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2">
+        <v>14</v>
+      </c>
+      <c r="D83" s="3">
+        <v>7</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3">
+        <v>9</v>
+      </c>
+      <c r="G83" s="2">
+        <v>6</v>
+      </c>
+      <c r="H83" s="3">
+        <v>16</v>
+      </c>
+      <c r="I83" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="3">
+        <v>12</v>
+      </c>
+      <c r="C84" s="2">
+        <v>17</v>
+      </c>
+      <c r="D84" s="3">
+        <v>8</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2</v>
+      </c>
+      <c r="F84" s="3">
+        <v>6</v>
+      </c>
+      <c r="G84" s="2">
+        <v>9</v>
+      </c>
+      <c r="H84" s="3">
+        <v>14</v>
+      </c>
+      <c r="I84" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="3">
+        <v>6</v>
+      </c>
+      <c r="C85" s="2">
+        <v>16</v>
+      </c>
+      <c r="D85" s="3">
+        <v>12</v>
+      </c>
+      <c r="E85" s="2">
+        <v>14</v>
+      </c>
+      <c r="F85" s="3">
+        <v>14</v>
+      </c>
+      <c r="G85" s="2">
+        <v>11</v>
+      </c>
+      <c r="H85" s="3">
+        <v>14</v>
+      </c>
+      <c r="I85" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="3">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2">
+        <v>15</v>
+      </c>
+      <c r="D86" s="3">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>7</v>
+      </c>
+      <c r="G86" s="2">
+        <v>14</v>
+      </c>
+      <c r="H86" s="3">
+        <v>3</v>
+      </c>
+      <c r="I86" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Group Assignments/All Teams.xlsx
+++ b/Group Assignments/All Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 538\STOR538_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F46085F-85B0-4D92-AE42-E2E56378C154}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39718679-5B6D-4703-9567-2F34423D26CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -1207,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F93BAB1-DB6F-4342-9A4B-754573C9E9A0}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2995,175 +2995,175 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>1</v>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2">
+        <v>6</v>
+      </c>
+      <c r="F62" s="3">
+        <v>13</v>
+      </c>
+      <c r="G62" s="2">
+        <v>12</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2</v>
+      </c>
+      <c r="I62" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C63" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D63" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E63" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F63" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G63" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H63" s="3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I63" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" s="3">
         <v>14</v>
       </c>
       <c r="C64" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D64" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E64" s="2">
         <v>12</v>
       </c>
       <c r="F64" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G64" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H64" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I64" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C65" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D65" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E65" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F65" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G65" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H65" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I65" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C66" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D66" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E66" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F66" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H66" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I66" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C67" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D67" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E67" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F67" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G67" s="2">
         <v>4</v>
       </c>
       <c r="H67" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I67" s="2">
         <v>13</v>
@@ -3171,173 +3171,173 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2">
         <v>3</v>
       </c>
       <c r="D68" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E68" s="2">
         <v>17</v>
       </c>
       <c r="F68" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G68" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H68" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I68" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E69" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F69" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H69" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I69" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D70" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F70" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G70" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H70" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I70" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C71" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D71" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E71" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F71" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G71" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H71" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I71" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D72" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F72" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G72" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H72" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I72" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C73" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D73" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F73" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G73" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H73" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I73" s="2">
         <v>15</v>
@@ -3345,115 +3345,115 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B74" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D74" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E74" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G74" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H74" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I74" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B75" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C75" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D75" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F75" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G75" s="2">
         <v>13</v>
       </c>
       <c r="H75" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I75" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C76" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D76" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G76" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I76" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C77" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D77" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F77" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G77" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H77" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" s="2">
         <v>9</v>
@@ -3461,262 +3461,233 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B78" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D78" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E78" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F78" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G78" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H78" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I78" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" s="3">
         <v>8</v>
       </c>
       <c r="C79" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D79" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E79" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F79" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G79" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H79" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I79" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E80" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F80" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G80" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H80" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I80" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C81" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F81" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H81" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I81" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C82" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E82" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F82" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G82" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H82" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I82" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D83" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" s="2">
         <v>2</v>
       </c>
       <c r="F83" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G83" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H83" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I83" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C84" s="2">
+        <v>16</v>
+      </c>
+      <c r="D84" s="3">
+        <v>12</v>
+      </c>
+      <c r="E84" s="2">
+        <v>14</v>
+      </c>
+      <c r="F84" s="3">
+        <v>14</v>
+      </c>
+      <c r="G84" s="2">
+        <v>11</v>
+      </c>
+      <c r="H84" s="3">
+        <v>14</v>
+      </c>
+      <c r="I84" s="2">
         <v>17</v>
-      </c>
-      <c r="D84" s="3">
-        <v>8</v>
-      </c>
-      <c r="E84" s="2">
-        <v>2</v>
-      </c>
-      <c r="F84" s="3">
-        <v>6</v>
-      </c>
-      <c r="G84" s="2">
-        <v>9</v>
-      </c>
-      <c r="H84" s="3">
-        <v>14</v>
-      </c>
-      <c r="I84" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B85" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C85" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E85" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F85" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G85" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H85" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I85" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="3">
-        <v>3</v>
-      </c>
-      <c r="C86" s="2">
-        <v>15</v>
-      </c>
-      <c r="D86" s="3">
-        <v>13</v>
-      </c>
-      <c r="E86" s="2">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3">
-        <v>7</v>
-      </c>
-      <c r="G86" s="2">
-        <v>14</v>
-      </c>
-      <c r="H86" s="3">
-        <v>3</v>
-      </c>
-      <c r="I86" s="2">
         <v>10</v>
       </c>
     </row>

--- a/Group Assignments/All Teams.xlsx
+++ b/Group Assignments/All Teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 538\STOR538_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39718679-5B6D-4703-9567-2F34423D26CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5497EB-2E0B-49FA-A5BF-B656F8E35D19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Childs,Grace Katelyn</t>
-  </si>
-  <si>
-    <t>Cooper,Harrison Bigelow</t>
   </si>
   <si>
     <t>Cozart,Lee Armstrong</t>
@@ -1207,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F93BAB1-DB6F-4342-9A4B-754573C9E9A0}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1640,25 +1637,25 @@
         <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F15" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1666,28 +1663,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1695,28 +1692,28 @@
         <v>24</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G17" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H17" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I17" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1724,28 +1721,28 @@
         <v>25</v>
       </c>
       <c r="B18" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H18" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1753,28 +1750,28 @@
         <v>26</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F19" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G19" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H19" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I19" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1782,28 +1779,28 @@
         <v>27</v>
       </c>
       <c r="B20" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E20" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F20" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I20" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1811,86 +1808,86 @@
         <v>28</v>
       </c>
       <c r="B21" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D21" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F21" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="3">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="2">
-        <v>17</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="4">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="3">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2">
-        <v>12</v>
-      </c>
-      <c r="F23" s="4">
-        <v>7</v>
-      </c>
-      <c r="G23" s="2">
-        <v>10</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
       <c r="I23" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1898,28 +1895,28 @@
         <v>31</v>
       </c>
       <c r="B24" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F24" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H24" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1927,83 +1924,83 @@
         <v>32</v>
       </c>
       <c r="B25" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>9</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2">
+        <v>16</v>
+      </c>
+      <c r="F26" s="4">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3">
         <v>17</v>
       </c>
-      <c r="H25" s="3">
-        <v>16</v>
-      </c>
-      <c r="I25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="3">
-        <v>14</v>
-      </c>
-      <c r="C26" s="2">
-        <v>12</v>
-      </c>
-      <c r="D26" s="3">
-        <v>10</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>3</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>9</v>
-      </c>
-      <c r="I26" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="3">
-        <v>13</v>
-      </c>
       <c r="C27" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D27" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F27" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G27" s="2">
         <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
@@ -2014,28 +2011,28 @@
         <v>35</v>
       </c>
       <c r="B28" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2">
         <v>7</v>
       </c>
       <c r="D28" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F28" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -2043,28 +2040,28 @@
         <v>36</v>
       </c>
       <c r="B29" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D29" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F29" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I29" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2072,28 +2069,28 @@
         <v>37</v>
       </c>
       <c r="B30" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D30" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F30" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G30" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H30" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I30" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2101,28 +2098,28 @@
         <v>38</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F31" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H31" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I31" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -2130,28 +2127,28 @@
         <v>39</v>
       </c>
       <c r="B32" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H32" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I32" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -2159,28 +2156,28 @@
         <v>40</v>
       </c>
       <c r="B33" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D33" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G33" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H33" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I33" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -2188,28 +2185,28 @@
         <v>41</v>
       </c>
       <c r="B34" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D34" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="4">
         <v>6</v>
       </c>
       <c r="G34" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H34" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I34" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2217,28 +2214,28 @@
         <v>42</v>
       </c>
       <c r="B35" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E35" s="2">
         <v>6</v>
       </c>
       <c r="F35" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H35" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I35" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -2246,28 +2243,28 @@
         <v>43</v>
       </c>
       <c r="B36" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E36" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F36" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G36" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H36" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I36" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2275,28 +2272,28 @@
         <v>44</v>
       </c>
       <c r="B37" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C37" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E37" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F37" s="4">
         <v>4</v>
       </c>
       <c r="G37" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I37" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2304,28 +2301,28 @@
         <v>45</v>
       </c>
       <c r="B38" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F38" s="4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G38" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H38" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I38" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2336,25 +2333,25 @@
         <v>4</v>
       </c>
       <c r="C39" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D39" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E39" s="2">
         <v>10</v>
       </c>
       <c r="F39" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I39" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2362,28 +2359,28 @@
         <v>47</v>
       </c>
       <c r="B40" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2">
         <v>10</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F40" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H40" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2391,28 +2388,28 @@
         <v>48</v>
       </c>
       <c r="B41" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D41" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E41" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F41" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G41" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H41" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I41" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -2423,25 +2420,25 @@
         <v>2</v>
       </c>
       <c r="C42" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D42" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2">
         <v>8</v>
       </c>
       <c r="F42" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H42" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I42" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -2449,25 +2446,25 @@
         <v>50</v>
       </c>
       <c r="B43" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F43" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H43" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2">
         <v>16</v>
@@ -2478,28 +2475,28 @@
         <v>51</v>
       </c>
       <c r="B44" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E44" s="2">
         <v>14</v>
       </c>
       <c r="F44" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G44" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
       </c>
       <c r="I44" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2507,28 +2504,28 @@
         <v>52</v>
       </c>
       <c r="B45" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E45" s="2">
-        <v>14</v>
-      </c>
-      <c r="F45" s="4">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>16</v>
       </c>
       <c r="G45" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H45" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2536,28 +2533,28 @@
         <v>53</v>
       </c>
       <c r="B46" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F46" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G46" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H46" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I46" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2565,28 +2562,28 @@
         <v>54</v>
       </c>
       <c r="B47" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H47" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I47" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2594,28 +2591,28 @@
         <v>55</v>
       </c>
       <c r="B48" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F48" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G48" s="2">
         <v>2</v>
       </c>
       <c r="H48" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I48" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2623,28 +2620,28 @@
         <v>56</v>
       </c>
       <c r="B49" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D49" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F49" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G49" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H49" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I49" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2652,7 +2649,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2">
         <v>13</v>
@@ -2661,19 +2658,19 @@
         <v>10</v>
       </c>
       <c r="E50" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G50" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H50" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I50" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2681,28 +2678,28 @@
         <v>58</v>
       </c>
       <c r="B51" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E51" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F51" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G51" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H51" s="3">
         <v>10</v>
       </c>
       <c r="I51" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2710,28 +2707,28 @@
         <v>59</v>
       </c>
       <c r="B52" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E52" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F52" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G52" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H52" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I52" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2739,28 +2736,28 @@
         <v>60</v>
       </c>
       <c r="B53" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D53" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E53" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G53" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H53" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I53" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2768,28 +2765,28 @@
         <v>61</v>
       </c>
       <c r="B54" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D54" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E54" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G54" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H54" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2797,28 +2794,28 @@
         <v>62</v>
       </c>
       <c r="B55" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C55" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D55" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F55" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G55" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H55" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I55" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2826,28 +2823,28 @@
         <v>63</v>
       </c>
       <c r="B56" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" s="2">
         <v>11</v>
       </c>
       <c r="D56" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E56" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F56" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G56" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I56" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2855,28 +2852,28 @@
         <v>64</v>
       </c>
       <c r="B57" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C57" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D57" s="3">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2">
         <v>17</v>
       </c>
-      <c r="E57" s="2">
-        <v>9</v>
-      </c>
       <c r="F57" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G57" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H57" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I57" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2884,28 +2881,28 @@
         <v>65</v>
       </c>
       <c r="B58" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C58" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D58" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E58" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F58" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H58" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I58" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2913,28 +2910,28 @@
         <v>66</v>
       </c>
       <c r="B59" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C59" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D59" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E59" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F59" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G59" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H59" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I59" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2942,28 +2939,28 @@
         <v>67</v>
       </c>
       <c r="B60" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D60" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F60" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H60" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I60" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2971,28 +2968,28 @@
         <v>68</v>
       </c>
       <c r="B61" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C61" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D61" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G61" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H61" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I61" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -3000,28 +2997,28 @@
         <v>69</v>
       </c>
       <c r="B62" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C62" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D62" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E62" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F62" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G62" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H62" s="3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I62" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -3032,25 +3029,25 @@
         <v>14</v>
       </c>
       <c r="C63" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D63" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E63" s="2">
         <v>12</v>
       </c>
       <c r="F63" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G63" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H63" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I63" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -3058,28 +3055,28 @@
         <v>71</v>
       </c>
       <c r="B64" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C64" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D64" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E64" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F64" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H64" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I64" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -3087,28 +3084,28 @@
         <v>72</v>
       </c>
       <c r="B65" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C65" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D65" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E65" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F65" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H65" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I65" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -3116,25 +3113,25 @@
         <v>73</v>
       </c>
       <c r="B66" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C66" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D66" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E66" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F66" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G66" s="2">
         <v>4</v>
       </c>
       <c r="H66" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I66" s="2">
         <v>13</v>
@@ -3145,28 +3142,28 @@
         <v>74</v>
       </c>
       <c r="B67" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2">
         <v>3</v>
       </c>
       <c r="D67" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E67" s="2">
         <v>17</v>
       </c>
       <c r="F67" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G67" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H67" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I67" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -3174,28 +3171,28 @@
         <v>75</v>
       </c>
       <c r="B68" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C68" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E68" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F68" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G68" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H68" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I68" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -3203,28 +3200,28 @@
         <v>76</v>
       </c>
       <c r="B69" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C69" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D69" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E69" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F69" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H69" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I69" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -3232,28 +3229,28 @@
         <v>77</v>
       </c>
       <c r="B70" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C70" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D70" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E70" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F70" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H70" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I70" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -3261,28 +3258,28 @@
         <v>78</v>
       </c>
       <c r="B71" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C71" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D71" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E71" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F71" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G71" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H71" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I71" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -3290,25 +3287,25 @@
         <v>79</v>
       </c>
       <c r="B72" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D72" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F72" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G72" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H72" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I72" s="2">
         <v>15</v>
@@ -3319,28 +3316,28 @@
         <v>80</v>
       </c>
       <c r="B73" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C73" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D73" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E73" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G73" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H73" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I73" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3348,28 +3345,28 @@
         <v>81</v>
       </c>
       <c r="B74" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C74" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D74" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E74" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F74" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G74" s="2">
         <v>13</v>
       </c>
       <c r="H74" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I74" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3377,28 +3374,28 @@
         <v>82</v>
       </c>
       <c r="B75" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C75" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D75" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G75" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I75" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3406,25 +3403,25 @@
         <v>83</v>
       </c>
       <c r="B76" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D76" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F76" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G76" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H76" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" s="2">
         <v>9</v>
@@ -3435,28 +3432,28 @@
         <v>84</v>
       </c>
       <c r="B77" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D77" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E77" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F77" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G77" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H77" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I77" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -3467,25 +3464,25 @@
         <v>8</v>
       </c>
       <c r="C78" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D78" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E78" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F78" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G78" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H78" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I78" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -3493,28 +3490,28 @@
         <v>86</v>
       </c>
       <c r="B79" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E79" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F79" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G79" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H79" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I79" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -3522,28 +3519,28 @@
         <v>87</v>
       </c>
       <c r="B80" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C80" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E80" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F80" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H80" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I80" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3551,28 +3548,28 @@
         <v>88</v>
       </c>
       <c r="B81" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E81" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F81" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G81" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H81" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I81" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3580,28 +3577,28 @@
         <v>89</v>
       </c>
       <c r="B82" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C82" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D82" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E82" s="2">
         <v>2</v>
       </c>
       <c r="F82" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G82" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H82" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I82" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3609,28 +3606,28 @@
         <v>90</v>
       </c>
       <c r="B83" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C83" s="2">
+        <v>16</v>
+      </c>
+      <c r="D83" s="3">
+        <v>12</v>
+      </c>
+      <c r="E83" s="2">
+        <v>14</v>
+      </c>
+      <c r="F83" s="3">
+        <v>14</v>
+      </c>
+      <c r="G83" s="2">
+        <v>11</v>
+      </c>
+      <c r="H83" s="3">
+        <v>14</v>
+      </c>
+      <c r="I83" s="2">
         <v>17</v>
-      </c>
-      <c r="D83" s="3">
-        <v>8</v>
-      </c>
-      <c r="E83" s="2">
-        <v>2</v>
-      </c>
-      <c r="F83" s="3">
-        <v>6</v>
-      </c>
-      <c r="G83" s="2">
-        <v>9</v>
-      </c>
-      <c r="H83" s="3">
-        <v>14</v>
-      </c>
-      <c r="I83" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3638,61 +3635,32 @@
         <v>91</v>
       </c>
       <c r="B84" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C84" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F84" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G84" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H84" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I84" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="3">
-        <v>3</v>
-      </c>
-      <c r="C85" s="2">
-        <v>15</v>
-      </c>
-      <c r="D85" s="3">
-        <v>13</v>
-      </c>
-      <c r="E85" s="2">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3">
-        <v>7</v>
-      </c>
-      <c r="G85" s="2">
-        <v>14</v>
-      </c>
-      <c r="H85" s="3">
-        <v>3</v>
-      </c>
-      <c r="I85" s="2">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I44">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Group Assignments/All Teams.xlsx
+++ b/Group Assignments/All Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 538\STOR538_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5497EB-2E0B-49FA-A5BF-B656F8E35D19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21621F6E-50BC-4075-9DDC-492DA70F380B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
+    <workbookView xWindow="6180" yWindow="840" windowWidth="19060" windowHeight="10160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Morris,Adelynn</t>
   </si>
   <si>
-    <t>Moton,Ryan</t>
-  </si>
-  <si>
     <t>Oh,Sooyeon</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>Poole,Meredith</t>
   </si>
   <si>
-    <t>Rai,Swadha</t>
-  </si>
-  <si>
     <t>Rajeshwer,Maanasa</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
   </si>
   <si>
     <t>Suo,Feiya</t>
-  </si>
-  <si>
-    <t>Szarka,Sylvia Tande</t>
   </si>
   <si>
     <t>Tedford,Alison Hope</t>
@@ -1204,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F93BAB1-DB6F-4342-9A4B-754573C9E9A0}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2794,28 +2785,28 @@
         <v>62</v>
       </c>
       <c r="B55" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2">
         <v>11</v>
       </c>
       <c r="D55" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E55" s="2">
+        <v>9</v>
+      </c>
+      <c r="F55" s="3">
         <v>11</v>
       </c>
-      <c r="F55" s="3">
-        <v>16</v>
-      </c>
       <c r="G55" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I55" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2823,28 +2814,28 @@
         <v>63</v>
       </c>
       <c r="B56" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D56" s="3">
+        <v>4</v>
+      </c>
+      <c r="E56" s="2">
         <v>17</v>
       </c>
-      <c r="E56" s="2">
-        <v>9</v>
-      </c>
       <c r="F56" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G56" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H56" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I56" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2852,28 +2843,28 @@
         <v>64</v>
       </c>
       <c r="B57" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C57" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D57" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F57" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H57" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I57" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2881,28 +2872,28 @@
         <v>65</v>
       </c>
       <c r="B58" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C58" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D58" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E58" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F58" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G58" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I58" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2910,28 +2901,28 @@
         <v>66</v>
       </c>
       <c r="B59" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C59" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D59" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F59" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H59" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I59" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2939,28 +2930,28 @@
         <v>67</v>
       </c>
       <c r="B60" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D60" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E60" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F60" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G60" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H60" s="3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I60" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2968,28 +2959,28 @@
         <v>68</v>
       </c>
       <c r="B61" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C61" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D61" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E61" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F61" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G61" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H61" s="3">
         <v>2</v>
       </c>
       <c r="I61" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2997,28 +2988,28 @@
         <v>69</v>
       </c>
       <c r="B62" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D62" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E62" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F62" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G62" s="2">
         <v>10</v>
       </c>
       <c r="H62" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I62" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -3026,28 +3017,28 @@
         <v>70</v>
       </c>
       <c r="B63" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C63" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E63" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F63" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H63" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -3055,28 +3046,28 @@
         <v>71</v>
       </c>
       <c r="B64" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D64" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E64" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F64" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G64" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H64" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I64" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -3084,28 +3075,28 @@
         <v>72</v>
       </c>
       <c r="B65" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D65" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E65" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F65" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G65" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H65" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I65" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -3113,28 +3104,28 @@
         <v>73</v>
       </c>
       <c r="B66" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C66" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E66" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F66" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G66" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H66" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I66" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -3142,28 +3133,28 @@
         <v>74</v>
       </c>
       <c r="B67" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C67" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D67" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E67" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F67" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G67" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H67" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I67" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -3171,28 +3162,28 @@
         <v>75</v>
       </c>
       <c r="B68" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C68" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D68" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F68" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G68" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H68" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I68" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -3200,28 +3191,28 @@
         <v>76</v>
       </c>
       <c r="B69" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C69" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F69" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G69" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I69" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -3229,28 +3220,28 @@
         <v>77</v>
       </c>
       <c r="B70" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C70" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D70" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E70" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F70" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G70" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H70" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I70" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -3258,28 +3249,28 @@
         <v>78</v>
       </c>
       <c r="B71" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C71" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D71" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G71" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H71" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I71" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -3290,25 +3281,25 @@
         <v>3</v>
       </c>
       <c r="C72" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D72" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E72" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F72" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G72" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H72" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I72" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -3316,28 +3307,28 @@
         <v>80</v>
       </c>
       <c r="B73" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C73" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D73" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E73" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F73" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G73" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H73" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3345,28 +3336,28 @@
         <v>81</v>
       </c>
       <c r="B74" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C74" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D74" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H74" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I74" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3374,25 +3365,25 @@
         <v>82</v>
       </c>
       <c r="B75" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C75" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F75" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G75" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H75" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I75" s="2">
         <v>9</v>
@@ -3403,28 +3394,28 @@
         <v>83</v>
       </c>
       <c r="B76" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C76" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D76" s="3">
+        <v>15</v>
+      </c>
+      <c r="E76" s="2">
         <v>11</v>
       </c>
-      <c r="E76" s="2">
-        <v>8</v>
-      </c>
       <c r="F76" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G76" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H76" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I76" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -3432,28 +3423,28 @@
         <v>84</v>
       </c>
       <c r="B77" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D77" s="3">
         <v>14</v>
       </c>
       <c r="E77" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F77" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H77" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I77" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -3461,28 +3452,28 @@
         <v>85</v>
       </c>
       <c r="B78" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C78" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E78" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F78" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G78" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H78" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I78" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -3490,28 +3481,28 @@
         <v>86</v>
       </c>
       <c r="B79" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C79" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E79" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F79" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G79" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H79" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I79" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -3519,28 +3510,28 @@
         <v>87</v>
       </c>
       <c r="B80" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C80" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E80" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F80" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G80" s="2">
+        <v>11</v>
+      </c>
+      <c r="H80" s="3">
+        <v>14</v>
+      </c>
+      <c r="I80" s="2">
         <v>17</v>
-      </c>
-      <c r="H80" s="3">
-        <v>2</v>
-      </c>
-      <c r="I80" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3548,114 +3539,27 @@
         <v>88</v>
       </c>
       <c r="B81" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C81" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E81" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G81" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H81" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I81" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" s="3">
-        <v>12</v>
-      </c>
-      <c r="C82" s="2">
-        <v>17</v>
-      </c>
-      <c r="D82" s="3">
-        <v>8</v>
-      </c>
-      <c r="E82" s="2">
-        <v>2</v>
-      </c>
-      <c r="F82" s="3">
-        <v>6</v>
-      </c>
-      <c r="G82" s="2">
-        <v>9</v>
-      </c>
-      <c r="H82" s="3">
-        <v>14</v>
-      </c>
-      <c r="I82" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" s="3">
-        <v>6</v>
-      </c>
-      <c r="C83" s="2">
-        <v>16</v>
-      </c>
-      <c r="D83" s="3">
-        <v>12</v>
-      </c>
-      <c r="E83" s="2">
-        <v>14</v>
-      </c>
-      <c r="F83" s="3">
-        <v>14</v>
-      </c>
-      <c r="G83" s="2">
-        <v>11</v>
-      </c>
-      <c r="H83" s="3">
-        <v>14</v>
-      </c>
-      <c r="I83" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" s="3">
-        <v>3</v>
-      </c>
-      <c r="C84" s="2">
-        <v>15</v>
-      </c>
-      <c r="D84" s="3">
-        <v>13</v>
-      </c>
-      <c r="E84" s="2">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>7</v>
-      </c>
-      <c r="G84" s="2">
-        <v>14</v>
-      </c>
-      <c r="H84" s="3">
-        <v>3</v>
-      </c>
-      <c r="I84" s="2">
         <v>10</v>
       </c>
     </row>

--- a/Group Assignments/All Teams.xlsx
+++ b/Group Assignments/All Teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 538\STOR538_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21621F6E-50BC-4075-9DDC-492DA70F380B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260B10DB-7C4C-41D0-9904-D041B5383D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="840" windowWidth="19060" windowHeight="10160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,273 +34,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Championship</t>
-  </si>
-  <si>
-    <t>Playoffs Round 1</t>
-  </si>
-  <si>
-    <t>Playoffs Round 2</t>
-  </si>
-  <si>
-    <t>Gameday Speech 1</t>
-  </si>
-  <si>
-    <t>Gameday Speech 2</t>
-  </si>
-  <si>
-    <t>Gameday Speech 3</t>
-  </si>
-  <si>
-    <t>Gameday Speech 4</t>
-  </si>
-  <si>
-    <t>Gameday Speech 5</t>
-  </si>
-  <si>
-    <t>Argueta,Fernando Santiago</t>
-  </si>
-  <si>
-    <t>Baker,Crystal Reshea</t>
-  </si>
-  <si>
-    <t>Basu,Sayak</t>
-  </si>
-  <si>
-    <t>Bharadwaj,Akshatha</t>
-  </si>
-  <si>
-    <t>Binsulaiman,Abdullah Mohammed A</t>
-  </si>
-  <si>
-    <t>Bordonaro,Brooke O</t>
-  </si>
-  <si>
-    <t>Bridges,Polly Thí Thuy</t>
-  </si>
-  <si>
-    <t>Burchell Jr,Clay Clay</t>
-  </si>
-  <si>
-    <t>Burhans,Tucker Field</t>
-  </si>
-  <si>
-    <t>Chadwick,Alexandria Leigh</t>
-  </si>
-  <si>
-    <t>Chen,Elise</t>
-  </si>
-  <si>
-    <t>Chen,Jessica</t>
-  </si>
-  <si>
-    <t>Childs,Grace Katelyn</t>
-  </si>
-  <si>
-    <t>Cozart,Lee Armstrong</t>
-  </si>
-  <si>
-    <t>Cui,Connie Palmer</t>
-  </si>
-  <si>
-    <t>Cybrynski,Julianna Jeanne</t>
-  </si>
-  <si>
-    <t>Datta,Anisha</t>
-  </si>
-  <si>
-    <t>Deo,Advaith</t>
-  </si>
-  <si>
-    <t>Desham,Sahith Reddy</t>
-  </si>
-  <si>
-    <t>Deshmukh,Ekta Vilas</t>
-  </si>
-  <si>
-    <t>Deverteuil,Liam Simon</t>
-  </si>
-  <si>
-    <t>Edwards,Alexa Marie</t>
-  </si>
-  <si>
-    <t>Evora,Daniel Mantei</t>
-  </si>
-  <si>
-    <t>Fan,Dora</t>
-  </si>
-  <si>
-    <t>Gandecha,Raj Dilip</t>
-  </si>
-  <si>
-    <t>Ganesan,Rajee</t>
-  </si>
-  <si>
-    <t>Geng,Xuyang</t>
-  </si>
-  <si>
-    <t>Gopalswamy,Shruti</t>
-  </si>
-  <si>
-    <t>Gray,Lucy Elisabeth</t>
-  </si>
-  <si>
-    <t>Gupta,Vasu</t>
-  </si>
-  <si>
-    <t>Hamilton,Laura Clare</t>
-  </si>
-  <si>
-    <t>Hastings,Isabella Josephine</t>
-  </si>
-  <si>
-    <t>Jakkinpali,Neha Laxmi</t>
-  </si>
-  <si>
-    <t>Johnson,Kelsey Marie</t>
-  </si>
-  <si>
-    <t>Jones,Ashley Renee</t>
-  </si>
-  <si>
-    <t>Joseph,Fab</t>
-  </si>
-  <si>
-    <t>Kadlec,Abby Carolan</t>
-  </si>
-  <si>
-    <t>Kajiwara,Aoi</t>
-  </si>
-  <si>
-    <t>Kim,Janice Jiwon</t>
-  </si>
-  <si>
-    <t>Kirkman,Nicholas John</t>
-  </si>
-  <si>
-    <t>Klein,Eric Robert</t>
-  </si>
-  <si>
-    <t>Kothapalli,Rachana</t>
-  </si>
-  <si>
-    <t>Lee,Ethan S</t>
-  </si>
-  <si>
-    <t>Li,Rui</t>
-  </si>
-  <si>
-    <t>Li,Vivian</t>
-  </si>
-  <si>
-    <t>Lickteig,John Henry</t>
-  </si>
-  <si>
-    <t>Liu,Tianen</t>
-  </si>
-  <si>
-    <t>Lo,Ashlee Mylea</t>
-  </si>
-  <si>
-    <t>Mahadeshwar,Dimple Jagannath</t>
-  </si>
-  <si>
-    <t>Mauzy,Justin Scott</t>
-  </si>
-  <si>
-    <t>Miller,Eric Marshall</t>
-  </si>
-  <si>
-    <t>Millican,Reagan Mccreary</t>
-  </si>
-  <si>
-    <t>Morris,Adelynn</t>
-  </si>
-  <si>
-    <t>Oh,Sooyeon</t>
-  </si>
-  <si>
-    <t>Pano Flores,Antonio</t>
-  </si>
-  <si>
-    <t>Patnaik,Shreya</t>
-  </si>
-  <si>
-    <t>Penwell,Alexa Marie</t>
-  </si>
-  <si>
-    <t>Poole,Meredith</t>
-  </si>
-  <si>
-    <t>Rajeshwer,Maanasa</t>
-  </si>
-  <si>
-    <t>Rende,Jerrett David</t>
-  </si>
-  <si>
-    <t>Reuland,Oliver Charles</t>
-  </si>
-  <si>
-    <t>Shaban,Omar Hilal</t>
-  </si>
-  <si>
-    <t>Shock,Ryan Michael</t>
-  </si>
-  <si>
-    <t>Sinclair,Julianne Elizabeth</t>
-  </si>
-  <si>
-    <t>Sivaraman,Maitreyi Saradha</t>
-  </si>
-  <si>
-    <t>Sriperumbudur,Amruth Swamy</t>
-  </si>
-  <si>
-    <t>Suo,Feiya</t>
-  </si>
-  <si>
-    <t>Tedford,Alison Hope</t>
-  </si>
-  <si>
-    <t>Terry-Edmunds,Sam Kweta</t>
-  </si>
-  <si>
-    <t>Thuman,Sydney Olga</t>
-  </si>
-  <si>
-    <t>Tiano,Drew Joseph</t>
-  </si>
-  <si>
-    <t>Tompkins,Brent Nichols</t>
-  </si>
-  <si>
-    <t>Varani,Lex</t>
-  </si>
-  <si>
-    <t>Vytla,Nikhil</t>
-  </si>
-  <si>
-    <t>Wasyluk,Matt Michael</t>
-  </si>
-  <si>
-    <t>Weisenhorn,Simon Philip</t>
-  </si>
-  <si>
-    <t>Willingham,Charlie Hardwicke</t>
-  </si>
-  <si>
-    <t>Youngstrom,Diane Erin</t>
-  </si>
-  <si>
-    <t>Zengince,Fehmi</t>
-  </si>
-  <si>
-    <t>Ziade,Mia Carole</t>
+    <t>Ackermann,Matt Friedrich</t>
+  </si>
+  <si>
+    <t>Allison,Chad Ross</t>
+  </si>
+  <si>
+    <t>Babb,Christian Taylor</t>
+  </si>
+  <si>
+    <t>Barbee,Hunter Ray</t>
+  </si>
+  <si>
+    <t>Barrett,Caelyn</t>
+  </si>
+  <si>
+    <t>Bhatt,Aayush Santosh</t>
+  </si>
+  <si>
+    <t>Boddepalli,Sandeep</t>
+  </si>
+  <si>
+    <t>Brightman,Matthew Austin</t>
+  </si>
+  <si>
+    <t>Cheekati,Maanyatha</t>
+  </si>
+  <si>
+    <t>Clayton,Benjamin Samuel</t>
+  </si>
+  <si>
+    <t>Coggin,Alex Bryce</t>
+  </si>
+  <si>
+    <t>Coughlin,Jonathan Nero</t>
+  </si>
+  <si>
+    <t>Dickerson,Christopher</t>
+  </si>
+  <si>
+    <t>Donahue,Dillon</t>
+  </si>
+  <si>
+    <t>Fall,Mohamed</t>
+  </si>
+  <si>
+    <t>Fawcett,Oscar</t>
+  </si>
+  <si>
+    <t>Gerdau,Garrett Douglas</t>
+  </si>
+  <si>
+    <t>Gerdau,Geoffrey Daniel</t>
+  </si>
+  <si>
+    <t>Gopal,Disha</t>
+  </si>
+  <si>
+    <t>Hatcher,Abigail Nicole</t>
+  </si>
+  <si>
+    <t>Henry,Cole Robinson</t>
+  </si>
+  <si>
+    <t>Hodges,Jackson Blount</t>
+  </si>
+  <si>
+    <t>Holmes,Sara Christine</t>
+  </si>
+  <si>
+    <t>Johnson,Hannah Marie</t>
+  </si>
+  <si>
+    <t>Krause,Katherine Leigh</t>
+  </si>
+  <si>
+    <t>Kulkarni,Savitra</t>
+  </si>
+  <si>
+    <t>Lang,Jilan</t>
+  </si>
+  <si>
+    <t>Lewis,Harrison David</t>
+  </si>
+  <si>
+    <t>Li,Yiran</t>
+  </si>
+  <si>
+    <t>Lloyd,Brynn</t>
+  </si>
+  <si>
+    <t>Ly,Richard</t>
+  </si>
+  <si>
+    <t>Mcdonnell,Thomas Scott</t>
+  </si>
+  <si>
+    <t>Mckinstry,Garrett Stephen</t>
+  </si>
+  <si>
+    <t>Mook,Casey Corley</t>
+  </si>
+  <si>
+    <t>Moore,DJ</t>
+  </si>
+  <si>
+    <t>Moore,Samuel Hart</t>
+  </si>
+  <si>
+    <t>Moton,Ryan</t>
+  </si>
+  <si>
+    <t>Mullaney,Nathan Patrick</t>
+  </si>
+  <si>
+    <t>Norman,Ben Elliott</t>
+  </si>
+  <si>
+    <t>Ollio,Connor David</t>
+  </si>
+  <si>
+    <t>Pais,Mervyn Patrick</t>
+  </si>
+  <si>
+    <t>Parker,Sierra Marie</t>
+  </si>
+  <si>
+    <t>Phillips,Cole Jeffery</t>
+  </si>
+  <si>
+    <t>Pulikkiyil,Amal</t>
+  </si>
+  <si>
+    <t>Purohit,Aayush</t>
+  </si>
+  <si>
+    <t>Ramani,Rohan</t>
+  </si>
+  <si>
+    <t>Ren,Winnie</t>
+  </si>
+  <si>
+    <t>Robertson,Kelsey Ann</t>
+  </si>
+  <si>
+    <t>Rodden,Elliott Miles</t>
+  </si>
+  <si>
+    <t>Salloum,Coleman Raphael</t>
+  </si>
+  <si>
+    <t>Shooman,Andrew</t>
+  </si>
+  <si>
+    <t>Sidhu,Simran Kaur</t>
+  </si>
+  <si>
+    <t>Singhal,Tanay</t>
+  </si>
+  <si>
+    <t>Stephens,Casey James</t>
+  </si>
+  <si>
+    <t>Stringer,Wilson Rowden</t>
+  </si>
+  <si>
+    <t>Supina,Kiley Allison</t>
+  </si>
+  <si>
+    <t>Timinskas,Natalie</t>
+  </si>
+  <si>
+    <t>Tobin,Caroline</t>
+  </si>
+  <si>
+    <t>Vaidya,Nihar Chetan</t>
+  </si>
+  <si>
+    <t>Vannikumar,Amitla</t>
+  </si>
+  <si>
+    <t>Vincent,Jeffrey John</t>
+  </si>
+  <si>
+    <t>Wan,Xiangxin</t>
+  </si>
+  <si>
+    <t>Warnock,Jacob Dalton</t>
+  </si>
+  <si>
+    <t>Wei,Jiahao</t>
+  </si>
+  <si>
+    <t>Won,Skyler Alexander</t>
+  </si>
+  <si>
+    <t>Xue,Rui</t>
+  </si>
+  <si>
+    <t>Zhao,Jiaqi</t>
+  </si>
+  <si>
+    <t>Zhao,Tongyu</t>
+  </si>
+  <si>
+    <t>GS1</t>
+  </si>
+  <si>
+    <t>GS2</t>
+  </si>
+  <si>
+    <t>GS3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>GS4</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>GS5</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F93BAB1-DB6F-4342-9A4B-754573C9E9A0}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1219,33 +1183,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>7</v>
@@ -1254,16 +1218,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
         <v>11</v>
       </c>
       <c r="F2" s="4">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3">
         <v>3</v>
@@ -1274,7 +1238,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>9</v>
@@ -1286,10 +1250,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2">
         <v>12</v>
@@ -1303,28 +1267,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2">
         <v>4</v>
       </c>
       <c r="H4" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2">
         <v>7</v>
@@ -1332,25 +1296,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3">
         <v>11</v>
       </c>
       <c r="E5" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3">
         <v>9</v>
@@ -1361,54 +1325,54 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
         <v>9</v>
       </c>
       <c r="E6" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3">
         <v>13</v>
       </c>
       <c r="I6" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
         <v>4</v>
@@ -1419,16 +1383,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>9</v>
@@ -1437,1332 +1401,1332 @@
         <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3">
         <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
       </c>
       <c r="F10" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F11" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F12" s="4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G12" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F13" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F15" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G15" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>5</v>
       </c>
       <c r="I15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
       </c>
       <c r="E16" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
       </c>
       <c r="F17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H18" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I18" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G19" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F20" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F21" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H21" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F22" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I22" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I23" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H24" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H25" s="3">
         <v>9</v>
       </c>
       <c r="I25" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D26" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E26" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F26" s="4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H26" s="3">
         <v>4</v>
       </c>
       <c r="I26" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F27" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2">
         <v>7</v>
       </c>
       <c r="D28" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F28" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H28" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F29" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H29" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I29" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F30" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G30" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I30" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F31" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G31" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I31" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D32" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H32" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I32" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E33" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F33" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G33" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H33" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I33" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D34" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F34" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G34" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I34" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E35" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I35" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F37" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G37" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I37" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F38" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G38" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H38" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I38" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F39" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H39" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I39" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F40" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G40" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H40" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I40" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C41" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G41" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H41" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I41" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C42" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2">
         <v>8</v>
       </c>
       <c r="F42" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G42" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H42" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I42" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C43" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F43" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G43" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H43" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I43" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D44" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F44" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H44" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D45" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
       </c>
       <c r="F45" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G45" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E46" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H46" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D47" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H47" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I47" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D48" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="2">
         <v>7</v>
       </c>
       <c r="F48" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I48" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D49" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G49" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H49" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I49" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D50" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E50" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F50" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G50" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H50" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I50" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C51" s="2">
         <v>12</v>
       </c>
       <c r="D51" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E51" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F51" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G51" s="2">
         <v>9</v>
       </c>
       <c r="H51" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I51" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D52" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F52" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G52" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H52" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I52" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G53" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H53" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I53" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C54" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E54" s="2">
         <v>5</v>
@@ -2771,329 +2735,329 @@
         <v>12</v>
       </c>
       <c r="G54" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H54" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I54" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D55" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F55" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G55" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H55" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I55" s="2">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D56" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E56" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F56" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H56" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I56" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C57" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D57" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F57" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H57" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C58" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D58" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F58" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G58" s="2">
         <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I58" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D59" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E59" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F59" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G59" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H59" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I59" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C60" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F60" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H60" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I60" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C61" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D61" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G61" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H61" s="3">
         <v>2</v>
       </c>
       <c r="I61" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E62" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F62" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G62" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H62" s="3">
         <v>10</v>
       </c>
       <c r="I62" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C63" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D63" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E63" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F63" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H63" s="3">
         <v>3</v>
       </c>
       <c r="I63" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C64" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D64" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F64" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G64" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H64" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I64" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C65" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D65" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E65" s="2">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F65" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G65" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H65" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I65" s="2">
         <v>4</v>
@@ -3101,466 +3065,118 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C66" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D66" s="3">
         <v>13</v>
       </c>
       <c r="E66" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F66" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H66" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I66" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C67" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D67" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H67" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I67" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C68" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D68" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E68" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I68" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C69" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D69" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E69" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F69" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
       </c>
       <c r="H69" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I69" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="3">
-        <v>15</v>
-      </c>
-      <c r="C70" s="2">
-        <v>10</v>
-      </c>
-      <c r="D70" s="3">
-        <v>6</v>
-      </c>
-      <c r="E70" s="2">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3">
-        <v>11</v>
-      </c>
-      <c r="G70" s="2">
-        <v>13</v>
-      </c>
-      <c r="H70" s="3">
-        <v>14</v>
-      </c>
-      <c r="I70" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="3">
-        <v>13</v>
-      </c>
-      <c r="C71" s="2">
-        <v>16</v>
-      </c>
-      <c r="D71" s="3">
-        <v>9</v>
-      </c>
-      <c r="E71" s="2">
-        <v>2</v>
-      </c>
-      <c r="F71" s="3">
-        <v>17</v>
-      </c>
-      <c r="G71" s="2">
-        <v>13</v>
-      </c>
-      <c r="H71" s="3">
-        <v>6</v>
-      </c>
-      <c r="I71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" s="3">
-        <v>3</v>
-      </c>
-      <c r="C72" s="2">
-        <v>7</v>
-      </c>
-      <c r="D72" s="3">
-        <v>10</v>
-      </c>
-      <c r="E72" s="2">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
-        <v>6</v>
-      </c>
-      <c r="G72" s="2">
-        <v>14</v>
-      </c>
-      <c r="H72" s="3">
-        <v>14</v>
-      </c>
-      <c r="I72" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" s="3">
-        <v>10</v>
-      </c>
-      <c r="C73" s="2">
-        <v>2</v>
-      </c>
-      <c r="D73" s="3">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2">
-        <v>8</v>
-      </c>
-      <c r="F73" s="3">
-        <v>4</v>
-      </c>
-      <c r="G73" s="2">
-        <v>2</v>
-      </c>
-      <c r="H73" s="3">
-        <v>15</v>
-      </c>
-      <c r="I73" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" s="3">
-        <v>8</v>
-      </c>
-      <c r="C74" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" s="3">
-        <v>14</v>
-      </c>
-      <c r="E74" s="2">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>12</v>
-      </c>
-      <c r="G74" s="2">
-        <v>5</v>
-      </c>
-      <c r="H74" s="3">
-        <v>13</v>
-      </c>
-      <c r="I74" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" s="3">
-        <v>8</v>
-      </c>
-      <c r="C75" s="2">
-        <v>8</v>
-      </c>
-      <c r="D75" s="3">
-        <v>3</v>
-      </c>
-      <c r="E75" s="2">
-        <v>17</v>
-      </c>
-      <c r="F75" s="3">
-        <v>5</v>
-      </c>
-      <c r="G75" s="2">
-        <v>8</v>
-      </c>
-      <c r="H75" s="3">
-        <v>1</v>
-      </c>
-      <c r="I75" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="3">
-        <v>5</v>
-      </c>
-      <c r="C76" s="2">
-        <v>9</v>
-      </c>
-      <c r="D76" s="3">
-        <v>15</v>
-      </c>
-      <c r="E76" s="2">
-        <v>11</v>
-      </c>
-      <c r="F76" s="3">
-        <v>12</v>
-      </c>
-      <c r="G76" s="2">
-        <v>14</v>
-      </c>
-      <c r="H76" s="3">
-        <v>8</v>
-      </c>
-      <c r="I76" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="3">
-        <v>13</v>
-      </c>
-      <c r="C77" s="2">
-        <v>15</v>
-      </c>
-      <c r="D77" s="3">
-        <v>14</v>
-      </c>
-      <c r="E77" s="2">
-        <v>9</v>
-      </c>
-      <c r="F77" s="3">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2">
-        <v>17</v>
-      </c>
-      <c r="H77" s="3">
-        <v>2</v>
-      </c>
-      <c r="I77" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="3">
-        <v>10</v>
-      </c>
-      <c r="C78" s="2">
-        <v>14</v>
-      </c>
-      <c r="D78" s="3">
-        <v>7</v>
-      </c>
-      <c r="E78" s="2">
-        <v>2</v>
-      </c>
-      <c r="F78" s="3">
-        <v>9</v>
-      </c>
-      <c r="G78" s="2">
-        <v>6</v>
-      </c>
-      <c r="H78" s="3">
-        <v>16</v>
-      </c>
-      <c r="I78" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="3">
-        <v>12</v>
-      </c>
-      <c r="C79" s="2">
-        <v>17</v>
-      </c>
-      <c r="D79" s="3">
-        <v>8</v>
-      </c>
-      <c r="E79" s="2">
-        <v>2</v>
-      </c>
-      <c r="F79" s="3">
-        <v>6</v>
-      </c>
-      <c r="G79" s="2">
-        <v>9</v>
-      </c>
-      <c r="H79" s="3">
-        <v>14</v>
-      </c>
-      <c r="I79" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" s="3">
-        <v>6</v>
-      </c>
-      <c r="C80" s="2">
-        <v>16</v>
-      </c>
-      <c r="D80" s="3">
-        <v>12</v>
-      </c>
-      <c r="E80" s="2">
-        <v>14</v>
-      </c>
-      <c r="F80" s="3">
-        <v>14</v>
-      </c>
-      <c r="G80" s="2">
-        <v>11</v>
-      </c>
-      <c r="H80" s="3">
-        <v>14</v>
-      </c>
-      <c r="I80" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" s="3">
-        <v>3</v>
-      </c>
-      <c r="C81" s="2">
-        <v>15</v>
-      </c>
-      <c r="D81" s="3">
-        <v>13</v>
-      </c>
-      <c r="E81" s="2">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3">
-        <v>7</v>
-      </c>
-      <c r="G81" s="2">
-        <v>14</v>
-      </c>
-      <c r="H81" s="3">
-        <v>3</v>
-      </c>
-      <c r="I81" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
